--- a/Excel/작업Rank.xlsx
+++ b/Excel/작업Rank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727B3A29-26A9-44C3-862C-B1782230EC56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B280F2EA-7806-4766-BF69-692B18D9CD30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E2CC1DD6-7642-47FF-9E87-4E50552F0B2C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,10 @@
   </si>
   <si>
     <t>ZeUs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1DDD9DDB7D18CD1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDA92EA-C927-4EEB-BA50-433B4C6ABB00}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -643,7 +647,7 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(B1,COUNTA(B:B)-1,0),1)=",",SUBSTITUTE(OFFSET(B1,COUNTA(B:B)-1,0),",","",1),OFFSET(B1,COUNTA(B:B)-1,0))
 &amp;"]"</f>
-        <v>["7673155958E607AE","E961B6CD2EB610AB","86154AB3E49BFC98"]</v>
+        <v>["7673155958E607AE","E961B6CD2EB610AB","86154AB3E49BFC98","F1DDD9DDB7D18CD1"]</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -655,7 +659,7 @@
         <v>"7673155958E607AE","E961B6CD2EB610AB"</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C4" si="1">""""&amp;$A3&amp;""""</f>
+        <f t="shared" ref="C3:C5" si="1">""""&amp;$A3&amp;""""</f>
         <v>"E961B6CD2EB610AB"</v>
       </c>
     </row>
@@ -670,6 +674,19 @@
       <c r="C4" t="str">
         <f t="shared" si="1"/>
         <v>"86154AB3E49BFC98"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ref="B5" ca="1" si="2">IF(ROW()=2,C5,OFFSET(B5,-1,0)&amp;IF(LEN(C5)=0,"",","&amp;C5))</f>
+        <v>"7673155958E607AE","E961B6CD2EB610AB","86154AB3E49BFC98","F1DDD9DDB7D18CD1"</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>"F1DDD9DDB7D18CD1"</v>
       </c>
     </row>
   </sheetData>
@@ -683,7 +700,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -716,11 +733,11 @@
         <v>929</v>
       </c>
       <c r="C2" t="str">
-        <f ca="1">IF(ROW()=2,D2,OFFSET(C2,-1,0)&amp;IF(LEN(D2)=0,"",","&amp;D2))</f>
+        <f t="shared" ref="C2:C31" ca="1" si="0">IF(ROW()=2,D2,OFFSET(C2,-1,0)&amp;IF(LEN(D2)=0,"",","&amp;D2))</f>
         <v>{"disNa":"当年情怡靜","val":"929"}</v>
       </c>
       <c r="D2" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A2&amp;""""
+        <f t="shared" ref="D2:D31" si="1">"{"""&amp;A$1&amp;""":"""&amp;A2&amp;""""
 &amp;","""&amp;B$1&amp;""":"""&amp;B2&amp;""""
 &amp;"}"</f>
         <v>{"disNa":"当年情怡靜","val":"929"}</v>
@@ -740,13 +757,11 @@
         <v>909</v>
       </c>
       <c r="C3" t="str">
-        <f ca="1">IF(ROW()=2,D3,OFFSET(C3,-1,0)&amp;IF(LEN(D3)=0,"",","&amp;D3))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"}</v>
       </c>
       <c r="D3" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A3&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B3&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"Sapire","val":"909"}</v>
       </c>
     </row>
@@ -758,13 +773,11 @@
         <v>909</v>
       </c>
       <c r="C4" t="str">
-        <f ca="1">IF(ROW()=2,D4,OFFSET(C4,-1,0)&amp;IF(LEN(D4)=0,"",","&amp;D4))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"}</v>
       </c>
       <c r="D4" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A4&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B4&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"Юлия","val":"909"}</v>
       </c>
     </row>
@@ -776,13 +789,11 @@
         <v>909</v>
       </c>
       <c r="C5" t="str">
-        <f ca="1">IF(ROW()=2,D5,OFFSET(C5,-1,0)&amp;IF(LEN(D5)=0,"",","&amp;D5))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"}</v>
       </c>
       <c r="D5" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A5&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B5&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"스파이디","val":"909"}</v>
       </c>
     </row>
@@ -794,13 +805,11 @@
         <v>849</v>
       </c>
       <c r="C6" t="str">
-        <f ca="1">IF(ROW()=2,D6,OFFSET(C6,-1,0)&amp;IF(LEN(D6)=0,"",","&amp;D6))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"}</v>
       </c>
       <c r="D6" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A6&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B6&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"뽀롱이","val":"849"}</v>
       </c>
     </row>
@@ -812,13 +821,11 @@
         <v>849</v>
       </c>
       <c r="C7" t="str">
-        <f ca="1">IF(ROW()=2,D7,OFFSET(C7,-1,0)&amp;IF(LEN(D7)=0,"",","&amp;D7))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"}</v>
       </c>
       <c r="D7" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A7&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B7&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"TheSOUL","val":"849"}</v>
       </c>
     </row>
@@ -830,13 +837,11 @@
         <v>849</v>
       </c>
       <c r="C8" t="str">
-        <f ca="1">IF(ROW()=2,D8,OFFSET(C8,-1,0)&amp;IF(LEN(D8)=0,"",","&amp;D8))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"}</v>
       </c>
       <c r="D8" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A8&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B8&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"運治兄弟","val":"849"}</v>
       </c>
     </row>
@@ -848,13 +853,11 @@
         <v>849</v>
       </c>
       <c r="C9" t="str">
-        <f ca="1">IF(ROW()=2,D9,OFFSET(C9,-1,0)&amp;IF(LEN(D9)=0,"",","&amp;D9))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"}</v>
       </c>
       <c r="D9" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A9&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B9&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"레콘x스타","val":"849"}</v>
       </c>
     </row>
@@ -866,13 +869,11 @@
         <v>849</v>
       </c>
       <c r="C10" t="str">
-        <f ca="1">IF(ROW()=2,D10,OFFSET(C10,-1,0)&amp;IF(LEN(D10)=0,"",","&amp;D10))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"}</v>
       </c>
       <c r="D10" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A10&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B10&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"Omar","val":"849"}</v>
       </c>
     </row>
@@ -884,13 +885,11 @@
         <v>849</v>
       </c>
       <c r="C11" t="str">
-        <f ca="1">IF(ROW()=2,D11,OFFSET(C11,-1,0)&amp;IF(LEN(D11)=0,"",","&amp;D11))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"}</v>
       </c>
       <c r="D11" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A11&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B11&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"로보투런","val":"849"}</v>
       </c>
     </row>
@@ -902,13 +901,11 @@
         <v>849</v>
       </c>
       <c r="C12" t="str">
-        <f ca="1">IF(ROW()=2,D12,OFFSET(C12,-1,0)&amp;IF(LEN(D12)=0,"",","&amp;D12))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"}</v>
       </c>
       <c r="D12" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A12&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B12&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"안경형","val":"849"}</v>
       </c>
     </row>
@@ -920,13 +917,11 @@
         <v>839</v>
       </c>
       <c r="C13" t="str">
-        <f ca="1">IF(ROW()=2,D13,OFFSET(C13,-1,0)&amp;IF(LEN(D13)=0,"",","&amp;D13))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"}</v>
       </c>
       <c r="D13" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A13&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B13&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"Паша","val":"839"}</v>
       </c>
     </row>
@@ -938,13 +933,11 @@
         <v>839</v>
       </c>
       <c r="C14" t="str">
-        <f ca="1">IF(ROW()=2,D14,OFFSET(C14,-1,0)&amp;IF(LEN(D14)=0,"",","&amp;D14))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"}</v>
       </c>
       <c r="D14" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A14&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B14&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"엘사","val":"839"}</v>
       </c>
     </row>
@@ -956,13 +949,11 @@
         <v>839</v>
       </c>
       <c r="C15" t="str">
-        <f ca="1">IF(ROW()=2,D15,OFFSET(C15,-1,0)&amp;IF(LEN(D15)=0,"",","&amp;D15))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"}</v>
       </c>
       <c r="D15" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A15&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B15&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"Erwin","val":"839"}</v>
       </c>
     </row>
@@ -974,13 +965,11 @@
         <v>839</v>
       </c>
       <c r="C16" t="str">
-        <f ca="1">IF(ROW()=2,D16,OFFSET(C16,-1,0)&amp;IF(LEN(D16)=0,"",","&amp;D16))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"}</v>
       </c>
       <c r="D16" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A16&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B16&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"류코","val":"839"}</v>
       </c>
     </row>
@@ -992,13 +981,11 @@
         <v>839</v>
       </c>
       <c r="C17" t="str">
-        <f ca="1">IF(ROW()=2,D17,OFFSET(C17,-1,0)&amp;IF(LEN(D17)=0,"",","&amp;D17))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"}</v>
       </c>
       <c r="D17" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A17&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B17&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"멍때리는현진","val":"839"}</v>
       </c>
     </row>
@@ -1010,13 +997,11 @@
         <v>839</v>
       </c>
       <c r="C18" t="str">
-        <f ca="1">IF(ROW()=2,D18,OFFSET(C18,-1,0)&amp;IF(LEN(D18)=0,"",","&amp;D18))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"}</v>
       </c>
       <c r="D18" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A18&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B18&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"ZeUs","val":"839"}</v>
       </c>
     </row>
@@ -1028,13 +1013,11 @@
         <v>839</v>
       </c>
       <c r="C19" t="str">
-        <f ca="1">IF(ROW()=2,D19,OFFSET(C19,-1,0)&amp;IF(LEN(D19)=0,"",","&amp;D19))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"}</v>
       </c>
       <c r="D19" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A19&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B19&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"ngữđan","val":"839"}</v>
       </c>
     </row>
@@ -1046,13 +1029,11 @@
         <v>839</v>
       </c>
       <c r="C20" t="str">
-        <f ca="1">IF(ROW()=2,D20,OFFSET(C20,-1,0)&amp;IF(LEN(D20)=0,"",","&amp;D20))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"}</v>
       </c>
       <c r="D20" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A20&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B20&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"Aragão","val":"839"}</v>
       </c>
     </row>
@@ -1064,13 +1045,11 @@
         <v>829</v>
       </c>
       <c r="C21" t="str">
-        <f ca="1">IF(ROW()=2,D21,OFFSET(C21,-1,0)&amp;IF(LEN(D21)=0,"",","&amp;D21))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"}</v>
       </c>
       <c r="D21" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A21&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B21&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"เกตุกนก","val":"829"}</v>
       </c>
     </row>
@@ -1082,13 +1061,11 @@
         <v>829</v>
       </c>
       <c r="C22" t="str">
-        <f ca="1">IF(ROW()=2,D22,OFFSET(C22,-1,0)&amp;IF(LEN(D22)=0,"",","&amp;D22))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"}</v>
       </c>
       <c r="D22" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A22&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B22&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"압색","val":"829"}</v>
       </c>
     </row>
@@ -1100,13 +1077,11 @@
         <v>829</v>
       </c>
       <c r="C23" t="str">
-        <f ca="1">IF(ROW()=2,D23,OFFSET(C23,-1,0)&amp;IF(LEN(D23)=0,"",","&amp;D23))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"}</v>
       </c>
       <c r="D23" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A23&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B23&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"네이름","val":"829"}</v>
       </c>
     </row>
@@ -1118,13 +1093,11 @@
         <v>829</v>
       </c>
       <c r="C24" t="str">
-        <f ca="1">IF(ROW()=2,D24,OFFSET(C24,-1,0)&amp;IF(LEN(D24)=0,"",","&amp;D24))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"}</v>
       </c>
       <c r="D24" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A24&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B24&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"Nero","val":"829"}</v>
       </c>
     </row>
@@ -1136,13 +1109,11 @@
         <v>829</v>
       </c>
       <c r="C25" t="str">
-        <f ca="1">IF(ROW()=2,D25,OFFSET(C25,-1,0)&amp;IF(LEN(D25)=0,"",","&amp;D25))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan","val":"829"}</v>
       </c>
       <c r="D25" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A25&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B25&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"Hasan","val":"829"}</v>
       </c>
     </row>
@@ -1154,13 +1125,11 @@
         <v>829</v>
       </c>
       <c r="C26" t="str">
-        <f ca="1">IF(ROW()=2,D26,OFFSET(C26,-1,0)&amp;IF(LEN(D26)=0,"",","&amp;D26))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan","val":"829"},{"disNa":"セッキー","val":"829"}</v>
       </c>
       <c r="D26" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A26&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B26&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"セッキー","val":"829"}</v>
       </c>
     </row>
@@ -1172,13 +1141,11 @@
         <v>829</v>
       </c>
       <c r="C27" t="str">
-        <f ca="1">IF(ROW()=2,D27,OFFSET(C27,-1,0)&amp;IF(LEN(D27)=0,"",","&amp;D27))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"}</v>
       </c>
       <c r="D27" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A27&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B27&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"그렙에잠이오냐","val":"829"}</v>
       </c>
     </row>
@@ -1190,13 +1157,11 @@
         <v>829</v>
       </c>
       <c r="C28" t="str">
-        <f ca="1">IF(ROW()=2,D28,OFFSET(C28,-1,0)&amp;IF(LEN(D28)=0,"",","&amp;D28))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"محمد","val":"829"}</v>
       </c>
       <c r="D28" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A28&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B28&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"محمد","val":"829"}</v>
       </c>
     </row>
@@ -1208,13 +1173,11 @@
         <v>829</v>
       </c>
       <c r="C29" t="str">
-        <f ca="1">IF(ROW()=2,D29,OFFSET(C29,-1,0)&amp;IF(LEN(D29)=0,"",","&amp;D29))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"محمد","val":"829"},{"disNa":"Aracer","val":"829"}</v>
       </c>
       <c r="D29" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A29&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B29&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"Aracer","val":"829"}</v>
       </c>
     </row>
@@ -1226,13 +1189,11 @@
         <v>829</v>
       </c>
       <c r="C30" t="str">
-        <f ca="1">IF(ROW()=2,D30,OFFSET(C30,-1,0)&amp;IF(LEN(D30)=0,"",","&amp;D30))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"محمد","val":"829"},{"disNa":"Aracer","val":"829"},{"disNa":"husniati","val":"829"}</v>
       </c>
       <c r="D30" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A30&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B30&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"husniati","val":"829"}</v>
       </c>
     </row>
@@ -1244,13 +1205,11 @@
         <v>829</v>
       </c>
       <c r="C31" t="str">
-        <f ca="1">IF(ROW()=2,D31,OFFSET(C31,-1,0)&amp;IF(LEN(D31)=0,"",","&amp;D31))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"محمد","val":"829"},{"disNa":"Aracer","val":"829"},{"disNa":"husniati","val":"829"},{"disNa":"클롱","val":"829"}</v>
       </c>
       <c r="D31" t="str">
-        <f>"{"""&amp;A$1&amp;""":"""&amp;A31&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B31&amp;""""
-&amp;"}"</f>
+        <f t="shared" si="1"/>
         <v>{"disNa":"클롱","val":"829"}</v>
       </c>
     </row>

--- a/Excel/작업Rank.xlsx
+++ b/Excel/작업Rank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B280F2EA-7806-4766-BF69-692B18D9CD30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E86C6C-BFB0-472D-B273-7E3D8C6BD52D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E2CC1DD6-7642-47FF-9E87-4E50552F0B2C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,15 +146,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hasan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>husniati</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>محمد</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -211,6 +203,134 @@
   </si>
   <si>
     <t>F1DDD9DDB7D18CD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FE53EB1EE3080089</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1A4E83C4109A600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6BE17D8D9457FD1C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A91865B770CF7BDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5999CAA3F23CD0C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37FF43AD0D9F4BA9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD6F2ABCF2025275</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1B3133907B6763F4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81C5E2D504507BFC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7AC6B99BE3FF786A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>698CB7DE31F04ED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7B1190D964ED88F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65C8E83F7D861BE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FB3B3CF9CC5A39E3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>361BB355959E7C41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EE2ED33B73D940A8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F723D92FB0A73582</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BD95484B048A7BE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE656B6FB4AD3C1C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1C4BD0CE9FEF2363</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E22189D25E207221</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5374B99D37231F7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7B09A942BC2BD627</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hasan98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71B3796766078145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C9068B5586CA8249</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43D901966650D831</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35FB17F81C2AD790</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7901CCAAE635F4BC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107A44C9430CEE84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9B876865F19C892E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pisto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,9 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDA92EA-C927-4EEB-BA50-433B4C6ABB00}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -678,7 +796,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5" ca="1" si="2">IF(ROW()=2,C5,OFFSET(B5,-1,0)&amp;IF(LEN(C5)=0,"",","&amp;C5))</f>
@@ -697,525 +815,623 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3672CEEA-042E-4227-A8DB-BADE0091FE28}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2">
         <v>929</v>
       </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C31" ca="1" si="0">IF(ROW()=2,D2,OFFSET(C2,-1,0)&amp;IF(LEN(D2)=0,"",","&amp;D2))</f>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E31" ca="1" si="0">IF(ROW()=2,F2,OFFSET(E2,-1,0)&amp;IF(LEN(F2)=0,"",","&amp;F2))</f>
         <v>{"disNa":"当年情怡靜","val":"929"}</v>
       </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:D31" si="1">"{"""&amp;A$1&amp;""":"""&amp;A2&amp;""""
-&amp;","""&amp;B$1&amp;""":"""&amp;B2&amp;""""
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F31" si="1">"{"""&amp;C$1&amp;""":"""&amp;C2&amp;""""
+&amp;","""&amp;D$1&amp;""":"""&amp;D2&amp;""""
 &amp;"}"</f>
         <v>{"disNa":"当年情怡靜","val":"929"}</v>
       </c>
-      <c r="F2" t="str">
+      <c r="H2" t="str">
         <f ca="1">"["&amp;
-IF(LEFT(OFFSET(C1,COUNTA(C:C)-1,0),1)=",",SUBSTITUTE(OFFSET(C1,COUNTA(C:C)-1,0),",","",1),OFFSET(C1,COUNTA(C:C)-1,0))
+IF(LEFT(OFFSET(E1,COUNTA(E:E)-1,0),1)=",",SUBSTITUTE(OFFSET(E1,COUNTA(E:E)-1,0),",","",1),OFFSET(E1,COUNTA(E:E)-1,0))
 &amp;"]"</f>
-        <v>[{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"محمد","val":"829"},{"disNa":"Aracer","val":"829"},{"disNa":"husniati","val":"829"},{"disNa":"클롱","val":"829"}]</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>[{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"Pisto","val":"829"},{"disNa":"Aracer","val":"829"},{"disNa":"husniati","val":"829"},{"disNa":"클롱","val":"829"}]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
+      <c r="D3">
         <v>909</v>
       </c>
-      <c r="C3" t="str">
+      <c r="E3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"}</v>
       </c>
-      <c r="D3" t="str">
+      <c r="F3" t="str">
         <f t="shared" si="1"/>
         <v>{"disNa":"Sapire","val":"909"}</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>909</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"}</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"Юлия","val":"909"}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>909</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"}</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"스파이디","val":"909"}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>849</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"}</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"뽀롱이","val":"849"}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>849</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"}</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"TheSOUL","val":"849"}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>849</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"}</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"運治兄弟","val":"849"}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>849</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"}</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"레콘x스타","val":"849"}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>849</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"}</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"Omar","val":"849"}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>849</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"}</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"로보투런","val":"849"}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>849</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"}</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"안경형","val":"849"}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>839</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"}</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"Паша","val":"839"}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>839</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"}</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"엘사","val":"839"}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>839</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"}</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"Erwin","val":"839"}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>839</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"}</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"류코","val":"839"}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>839</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"}</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"멍때리는현진","val":"839"}</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
-        <v>909</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"}</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"Юлия","val":"909"}</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>909</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"}</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"스파이디","val":"909"}</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>849</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"}</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"뽀롱이","val":"849"}</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>849</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"}</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"TheSOUL","val":"849"}</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>849</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"}</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"運治兄弟","val":"849"}</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>849</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"}</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"레콘x스타","val":"849"}</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="D18">
+        <v>839</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"}</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"ZeUs","val":"839"}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19">
+        <v>839</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"}</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"ngữđan","val":"839"}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
         <v>32</v>
       </c>
-      <c r="B10">
-        <v>849</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"}</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"Omar","val":"849"}</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>849</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"}</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"로보투런","val":"849"}</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>849</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"}</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"안경형","val":"849"}</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13">
+      <c r="D20">
         <v>839</v>
       </c>
-      <c r="C13" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"}</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"Паша","val":"839"}</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>839</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"}</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"엘사","val":"839"}</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>839</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"}</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"Erwin","val":"839"}</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>839</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"}</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"류코","val":"839"}</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>839</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"}</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"멍때리는현진","val":"839"}</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18">
-        <v>839</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"}</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"ZeUs","val":"839"}</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19">
-        <v>839</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"}</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"ngữđan","val":"839"}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="E20" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"}</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"Aragão","val":"839"}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>829</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"}</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"เกตุกนก","val":"829"}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>829</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"}</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"압색","val":"829"}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>829</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"}</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"네이름","val":"829"}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>829</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"}</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"Nero","val":"829"}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25">
+        <v>829</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"}</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"Hasan98","val":"829"}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26">
+        <v>829</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"}</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"セッキー","val":"829"}</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>829</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"}</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"그렙에잠이오냐","val":"829"}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28">
+        <v>829</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"Pisto","val":"829"}</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"Pisto","val":"829"}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>829</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"Pisto","val":"829"},{"disNa":"Aracer","val":"829"}</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"Aracer","val":"829"}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <v>829</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"Pisto","val":"829"},{"disNa":"Aracer","val":"829"},{"disNa":"husniati","val":"829"}</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"husniati","val":"829"}</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
         <v>34</v>
       </c>
-      <c r="B20">
-        <v>839</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"}</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"Aragão","val":"839"}</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21">
+      <c r="D31">
         <v>829</v>
       </c>
-      <c r="C21" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"}</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"เกตุกนก","val":"829"}</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>829</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"}</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"압색","val":"829"}</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>829</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"}</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"네이름","val":"829"}</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>829</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"}</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"Nero","val":"829"}</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25">
-        <v>829</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan","val":"829"}</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"Hasan","val":"829"}</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26">
-        <v>829</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan","val":"829"},{"disNa":"セッキー","val":"829"}</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"セッキー","val":"829"}</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27">
-        <v>829</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"}</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"그렙에잠이오냐","val":"829"}</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>829</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"محمد","val":"829"}</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"محمد","val":"829"}</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>829</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"محمد","val":"829"},{"disNa":"Aracer","val":"829"}</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"Aracer","val":"829"}</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>829</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"محمد","val":"829"},{"disNa":"Aracer","val":"829"},{"disNa":"husniati","val":"829"}</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"husniati","val":"829"}</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>829</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"محمد","val":"829"},{"disNa":"Aracer","val":"829"},{"disNa":"husniati","val":"829"},{"disNa":"클롱","val":"829"}</v>
-      </c>
-      <c r="D31" t="str">
+      <c r="E31" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"Pisto","val":"829"},{"disNa":"Aracer","val":"829"},{"disNa":"husniati","val":"829"},{"disNa":"클롱","val":"829"}</v>
+      </c>
+      <c r="F31" t="str">
         <f t="shared" si="1"/>
         <v>{"disNa":"클롱","val":"829"}</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
-    <sortCondition descending="1" ref="B2:B31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:F31">
+    <sortCondition descending="1" ref="D2:D31"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/작업Rank.xlsx
+++ b/Excel/작업Rank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E86C6C-BFB0-472D-B273-7E3D8C6BD52D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DB3721-FBB5-447D-8EB0-B03D8C2B3E01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E2CC1DD6-7642-47FF-9E87-4E50552F0B2C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뽀롱이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rnkSt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스파이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sapire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,47 +90,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로보투런</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Erwin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>안경형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>류코</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>運治兄弟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>멍때리는현진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Паша</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>그렙에잠이오냐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>압색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클롱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当年情怡靜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,14 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A91865B770CF7BDC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C5999CAA3F23CD0C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>37FF43AD0D9F4BA9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,34 +194,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7AC6B99BE3FF786A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>698CB7DE31F04ED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D7B1190D964ED88F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>65C8E83F7D861BE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FB3B3CF9CC5A39E3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>361BB355959E7C41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EE2ED33B73D940A8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>F723D92FB0A73582</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,14 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E22189D25E207221</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D5374B99D37231F7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7B09A942BC2BD627</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,10 +247,6 @@
   </si>
   <si>
     <t>107A44C9430CEE84</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9B876865F19C892E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -796,7 +716,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5" ca="1" si="2">IF(ROW()=2,C5,OFFSET(B5,-1,0)&amp;IF(LEN(C5)=0,"",","&amp;C5))</f>
@@ -815,7 +735,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3672CEEA-042E-4227-A8DB-BADE0091FE28}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -836,31 +756,31 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>929</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E31" ca="1" si="0">IF(ROW()=2,F2,OFFSET(E2,-1,0)&amp;IF(LEN(F2)=0,"",","&amp;F2))</f>
+        <f t="shared" ref="E2:E21" ca="1" si="0">IF(ROW()=2,F2,OFFSET(E2,-1,0)&amp;IF(LEN(F2)=0,"",","&amp;F2))</f>
         <v>{"disNa":"当年情怡靜","val":"929"}</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F31" si="1">"{"""&amp;C$1&amp;""":"""&amp;C2&amp;""""
+        <f t="shared" ref="F2:F21" si="1">"{"""&amp;C$1&amp;""":"""&amp;C2&amp;""""
 &amp;","""&amp;D$1&amp;""":"""&amp;D2&amp;""""
 &amp;"}"</f>
         <v>{"disNa":"当年情怡靜","val":"929"}</v>
@@ -869,15 +789,15 @@
         <f ca="1">"["&amp;
 IF(LEFT(OFFSET(E1,COUNTA(E:E)-1,0),1)=",",SUBSTITUTE(OFFSET(E1,COUNTA(E:E)-1,0),",","",1),OFFSET(E1,COUNTA(E:E)-1,0))
 &amp;"]"</f>
-        <v>[{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"Pisto","val":"829"},{"disNa":"Aracer","val":"829"},{"disNa":"husniati","val":"829"},{"disNa":"클롱","val":"829"}]</v>
+        <v>[{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"Pisto","val":"829"},{"disNa":"Aracer","val":"829"},{"disNa":"husniati","val":"829"}]</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>909</v>
@@ -893,10 +813,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>909</v>
@@ -912,66 +832,69 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5">
-        <v>909</v>
+        <v>849</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"}</v>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"}</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
-        <v>{"disNa":"스파이디","val":"909"}</v>
+        <v>{"disNa":"TheSOUL","val":"849"}</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D6">
         <v>849</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"}</v>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"}</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
-        <v>{"disNa":"뽀롱이","val":"849"}</v>
+        <v>{"disNa":"運治兄弟","val":"849"}</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>849</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"}</v>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"}</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v>{"disNa":"TheSOUL","val":"849"}</v>
+        <v>{"disNa":"레콘x스타","val":"849"}</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8">
@@ -979,97 +902,94 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"}</v>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"}</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v>{"disNa":"運治兄弟","val":"849"}</v>
+        <v>{"disNa":"Omar","val":"849"}</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"}</v>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"}</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
-        <v>{"disNa":"레콘x스타","val":"849"}</v>
+        <v>{"disNa":"Паша","val":"839"}</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"}</v>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"}</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
-        <v>{"disNa":"Omar","val":"849"}</v>
+        <v>{"disNa":"Erwin","val":"839"}</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"}</v>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"}</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v>{"disNa":"로보투런","val":"849"}</v>
+        <v>{"disNa":"ZeUs","val":"839"}</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"}</v>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"}</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v>{"disNa":"안경형","val":"849"}</v>
+        <v>{"disNa":"ngữđan","val":"839"}</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
       <c r="D13">
@@ -1077,361 +997,171 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"}</v>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"}</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
-        <v>{"disNa":"Паша","val":"839"}</v>
+        <v>{"disNa":"Aragão","val":"839"}</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"}</v>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"}</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
-        <v>{"disNa":"엘사","val":"839"}</v>
+        <v>{"disNa":"เกตุกนก","val":"829"}</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"}</v>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"Nero","val":"829"}</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
-        <v>{"disNa":"Erwin","val":"839"}</v>
+        <v>{"disNa":"Nero","val":"829"}</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D16">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"}</v>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"}</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
-        <v>{"disNa":"류코","val":"839"}</v>
+        <v>{"disNa":"Hasan98","val":"829"}</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
       <c r="D17">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"}</v>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"}</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>{"disNa":"멍때리는현진","val":"839"}</v>
+        <v>{"disNa":"セッキー","val":"829"}</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"}</v>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"}</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
-        <v>{"disNa":"ZeUs","val":"839"}</v>
+        <v>{"disNa":"그렙에잠이오냐","val":"829"}</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="D19">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"}</v>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"Pisto","val":"829"}</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
-        <v>{"disNa":"ngữđan","val":"839"}</v>
+        <v>{"disNa":"Pisto","val":"829"}</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
+        <v>49</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"}</v>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"Pisto","val":"829"},{"disNa":"Aracer","val":"829"}</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>{"disNa":"Aragão","val":"839"}</v>
+        <v>{"disNa":"Aracer","val":"829"}</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
       </c>
       <c r="D21">
         <v>829</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"}</v>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"Pisto","val":"829"},{"disNa":"Aracer","val":"829"},{"disNa":"husniati","val":"829"}</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
-        <v>{"disNa":"เกตุกนก","val":"829"}</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22">
-        <v>829</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"}</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"압색","val":"829"}</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23">
-        <v>829</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"}</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"네이름","val":"829"}</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24">
-        <v>829</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"}</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"Nero","val":"829"}</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25">
-        <v>829</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"}</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"Hasan98","val":"829"}</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26">
-        <v>829</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"}</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"セッキー","val":"829"}</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27">
-        <v>829</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"}</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"그렙에잠이오냐","val":"829"}</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28">
-        <v>829</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"Pisto","val":"829"}</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"Pisto","val":"829"}</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29">
-        <v>829</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"Pisto","val":"829"},{"disNa":"Aracer","val":"829"}</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"Aracer","val":"829"}</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30">
-        <v>829</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"Pisto","val":"829"},{"disNa":"Aracer","val":"829"},{"disNa":"husniati","val":"829"}</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="1"/>
         <v>{"disNa":"husniati","val":"829"}</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31">
-        <v>829</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"스파이디","val":"909"},{"disNa":"뽀롱이","val":"849"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"로보투런","val":"849"},{"disNa":"안경형","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"엘사","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"류코","val":"839"},{"disNa":"멍때리는현진","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"압색","val":"829"},{"disNa":"네이름","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"Pisto","val":"829"},{"disNa":"Aracer","val":"829"},{"disNa":"husniati","val":"829"},{"disNa":"클롱","val":"829"}</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"클롱","val":"829"}</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:F31">
-    <sortCondition descending="1" ref="D2:D31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:F21">
+    <sortCondition descending="1" ref="D2:D21"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/작업Rank.xlsx
+++ b/Excel/작업Rank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DB3721-FBB5-447D-8EB0-B03D8C2B3E01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5115230-3A1D-4D8A-9956-A01C19FC0FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E2CC1DD6-7642-47FF-9E87-4E50552F0B2C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E2CC1DD6-7642-47FF-9E87-4E50552F0B2C}"/>
   </bookViews>
   <sheets>
     <sheet name="rnkBan서버" sheetId="1" r:id="rId1"/>
@@ -82,18 +82,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sapire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TheSOUL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Erwin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>運治兄弟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,31 +114,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>セッキ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Aragão</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>เกตุกนก</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当年情怡靜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,9 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ngữđan</t>
-  </si>
-  <si>
     <t>ZeUs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,6 +219,25 @@
   </si>
   <si>
     <t>Pisto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sephiroth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>แมมมอธ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thần Chiến Tranh</t>
+  </si>
+  <si>
+    <t>シャドウ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;_&lt;/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,7 +703,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5" ca="1" si="2">IF(ROW()=2,C5,OFFSET(B5,-1,0)&amp;IF(LEN(C5)=0,"",","&amp;C5))</f>
@@ -735,433 +722,426 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3672CEEA-042E-4227-A8DB-BADE0091FE28}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="1" max="2" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1">
+    <row r="1" spans="1:7" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2">
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
         <v>929</v>
       </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D21" ca="1" si="0">IF(ROW()=2,E2,OFFSET(D2,-1,0)&amp;IF(LEN(E2)=0,"",","&amp;E2))</f>
+        <v>{"disNa":"当年情怡靜","val":"929"}</v>
+      </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E21" ca="1" si="0">IF(ROW()=2,F2,OFFSET(E2,-1,0)&amp;IF(LEN(F2)=0,"",","&amp;F2))</f>
-        <v>{"disNa":"当年情怡靜","val":"929"}</v>
-      </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2:F21" si="1">"{"""&amp;C$1&amp;""":"""&amp;C2&amp;""""
-&amp;","""&amp;D$1&amp;""":"""&amp;D2&amp;""""
+        <f t="shared" ref="E2:E21" si="1">"{"""&amp;B$1&amp;""":"""&amp;B2&amp;""""
+&amp;","""&amp;C$1&amp;""":"""&amp;C2&amp;""""
 &amp;"}"</f>
         <v>{"disNa":"当年情怡靜","val":"929"}</v>
       </c>
-      <c r="H2" t="str">
+      <c r="G2" t="str">
         <f ca="1">"["&amp;
-IF(LEFT(OFFSET(E1,COUNTA(E:E)-1,0),1)=",",SUBSTITUTE(OFFSET(E1,COUNTA(E:E)-1,0),",","",1),OFFSET(E1,COUNTA(E:E)-1,0))
+IF(LEFT(OFFSET(D1,COUNTA(D:D)-1,0),1)=",",SUBSTITUTE(OFFSET(D1,COUNTA(D:D)-1,0),",","",1),OFFSET(D1,COUNTA(D:D)-1,0))
 &amp;"]"</f>
-        <v>[{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"Pisto","val":"829"},{"disNa":"Aracer","val":"829"},{"disNa":"husniati","val":"829"}]</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>[{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sephiroth","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"&gt;_&lt;/","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"Thần Chiến Tranh","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"แมมมอธ","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"シャドウ","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"Pisto","val":"829"},{"disNa":"Aracer","val":"829"},{"disNa":"husniati","val":"829"}]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>909</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sephiroth","val":"909"}</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"Sephiroth","val":"909"}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>909</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sephiroth","val":"909"},{"disNa":"Юлия","val":"909"}</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"Юлия","val":"909"}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>849</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sephiroth","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"}</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"TheSOUL","val":"849"}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>849</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sephiroth","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"}</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"運治兄弟","val":"849"}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>849</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sephiroth","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"}</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"레콘x스타","val":"849"}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>909</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"}</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"Sapire","val":"909"}</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>849</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sephiroth","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"}</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"Omar","val":"849"}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4">
-        <v>909</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"}</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"Юлия","val":"909"}</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>839</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sephiroth","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"}</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"Паша","val":"839"}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>849</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"}</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"TheSOUL","val":"849"}</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>839</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sephiroth","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"&gt;_&lt;/","val":"839"}</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"&gt;_&lt;/","val":"839"}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>839</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sephiroth","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"&gt;_&lt;/","val":"839"},{"disNa":"ZeUs","val":"839"}</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"ZeUs","val":"839"}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>839</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sephiroth","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"&gt;_&lt;/","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"Thần Chiến Tranh","val":"839"}</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"Thần Chiến Tranh","val":"839"}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>839</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sephiroth","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"&gt;_&lt;/","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"Thần Chiến Tranh","val":"839"},{"disNa":"Aragão","val":"839"}</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"Aragão","val":"839"}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14">
+        <v>829</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sephiroth","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"&gt;_&lt;/","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"Thần Chiến Tranh","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"แมมมอธ","val":"829"}</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"แมมมอธ","val":"829"}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>829</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sephiroth","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"&gt;_&lt;/","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"Thần Chiến Tranh","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"แมมมอธ","val":"829"},{"disNa":"Nero","val":"829"}</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"Nero","val":"829"}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>829</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sephiroth","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"&gt;_&lt;/","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"Thần Chiến Tranh","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"แมมมอธ","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"}</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"Hasan98","val":"829"}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>829</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sephiroth","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"&gt;_&lt;/","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"Thần Chiến Tranh","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"แมมมอธ","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"シャドウ","val":"829"}</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"シャドウ","val":"829"}</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="D6">
-        <v>849</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"}</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"運治兄弟","val":"849"}</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>849</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"}</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"레콘x스타","val":"849"}</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>849</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"}</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"Omar","val":"849"}</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>839</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"}</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"Паша","val":"839"}</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>839</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"}</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"Erwin","val":"839"}</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11">
-        <v>839</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"}</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"ZeUs","val":"839"}</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12">
-        <v>839</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"}</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"ngữđan","val":"839"}</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13">
-        <v>839</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"}</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"Aragão","val":"839"}</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14">
+      <c r="C18">
         <v>829</v>
       </c>
-      <c r="E14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"}</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"เกตุกนก","val":"829"}</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+      <c r="D18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sephiroth","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"&gt;_&lt;/","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"Thần Chiến Tranh","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"แมมมอธ","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"シャドウ","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"}</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"그렙에잠이오냐","val":"829"}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>829</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sephiroth","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"&gt;_&lt;/","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"Thần Chiến Tranh","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"แมมมอธ","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"シャドウ","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"Pisto","val":"829"}</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"Pisto","val":"829"}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D15">
+      <c r="C20">
         <v>829</v>
       </c>
-      <c r="E15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"Nero","val":"829"}</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"Nero","val":"829"}</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
+      <c r="D20" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sephiroth","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"&gt;_&lt;/","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"Thần Chiến Tranh","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"แมมมอธ","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"シャドウ","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"Pisto","val":"829"},{"disNa":"Aracer","val":"829"}</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>{"disNa":"Aracer","val":"829"}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
         <v>829</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"}</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"Hasan98","val":"829"}</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17">
-        <v>829</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"}</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"セッキー","val":"829"}</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <v>829</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"}</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"그렙에잠이오냐","val":"829"}</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19">
-        <v>829</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"Pisto","val":"829"}</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"Pisto","val":"829"}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>829</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"Pisto","val":"829"},{"disNa":"Aracer","val":"829"}</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="1"/>
-        <v>{"disNa":"Aracer","val":"829"}</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21">
-        <v>829</v>
+      <c r="D21" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sephiroth","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"&gt;_&lt;/","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"Thần Chiến Tranh","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"แมมมอธ","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"シャドウ","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"Pisto","val":"829"},{"disNa":"Aracer","val":"829"},{"disNa":"husniati","val":"829"}</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>{"disNa":"当年情怡靜","val":"929"},{"disNa":"Sapire","val":"909"},{"disNa":"Юлия","val":"909"},{"disNa":"TheSOUL","val":"849"},{"disNa":"運治兄弟","val":"849"},{"disNa":"레콘x스타","val":"849"},{"disNa":"Omar","val":"849"},{"disNa":"Паша","val":"839"},{"disNa":"Erwin","val":"839"},{"disNa":"ZeUs","val":"839"},{"disNa":"ngữđan","val":"839"},{"disNa":"Aragão","val":"839"},{"disNa":"เกตุกนก","val":"829"},{"disNa":"Nero","val":"829"},{"disNa":"Hasan98","val":"829"},{"disNa":"セッキー","val":"829"},{"disNa":"그렙에잠이오냐","val":"829"},{"disNa":"Pisto","val":"829"},{"disNa":"Aracer","val":"829"},{"disNa":"husniati","val":"829"}</v>
-      </c>
-      <c r="F21" t="str">
         <f t="shared" si="1"/>
         <v>{"disNa":"husniati","val":"829"}</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:F21">
-    <sortCondition descending="1" ref="D2:D21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E21">
+    <sortCondition descending="1" ref="C2:C21"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
